--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/engs1793_ox_ac_uk/Documents/4pi_workspace/Git/CAD-files-master/CAD-files-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/engs1793_ox_ac_uk/Documents/4pi_workspace/Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7584"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10092"/>
   </bookViews>
   <sheets>
     <sheet name="4Pi-SMS partlist" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="506">
   <si>
     <t>Category</t>
   </si>
@@ -881,9 +881,6 @@
     <t>LM2XY/M - Translating Lens Mount for Ø2" Optics, 1 Retaining Ring Included, Metric</t>
   </si>
   <si>
-    <t>Dovetail Rail Carrier, 1/4" (M6) Counterbore</t>
-  </si>
-  <si>
     <t>RLA450_M</t>
   </si>
   <si>
@@ -891,9 +888,6 @@
   </si>
   <si>
     <t>KM200</t>
-  </si>
-  <si>
-    <t>Kinematic Mirror Mount for Ø2" Optics</t>
   </si>
   <si>
     <t>RC3</t>
@@ -1048,12 +1042,6 @@
 with ø 25 mm / 25.4 mm (1"), deflection to the left</t>
   </si>
   <si>
-    <t>RC12FC-P01</t>
-  </si>
-  <si>
-    <t>Protected Silver Reflective Collimator, 450 nm - 20 µm, Ø12 mm Beam, FC/P</t>
-  </si>
-  <si>
     <t>K5X1</t>
   </si>
   <si>
@@ -1298,9 +1286,6 @@
   </si>
   <si>
     <t xml:space="preserve">RC12FC-P01 - Protected Silver Reflective Collimator, 450 nm - 20 µm, Ø12 mm Beam, FC/PC </t>
-  </si>
-  <si>
-    <t>£724.76</t>
   </si>
   <si>
     <t>SM15RR</t>
@@ -1559,20 +1544,17 @@
     <t>Collimated Laser-Diode-Pumped DPSS Laser Module, 532 nm, 0.9 mW, Round Beam, Ø11 mm Housing</t>
   </si>
   <si>
-    <t>PELCO SEMClip™ Clips, pkg/10</t>
-  </si>
-  <si>
-    <t>Ted Pella</t>
-  </si>
-  <si>
-    <t>PELCO SEMClip™ Screws, Brass, M2 x 3mm length, pkg/10</t>
+    <t>https://www.tedpella.com/SEM_html/SEMclip.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,6 +1581,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1623,10 +1611,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1662,8 +1651,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1879,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U954"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2403,11 +2395,11 @@
         <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ref="F20:F22" si="4">E20*H20</f>
-        <v>17.93</v>
+        <v>89.65</v>
       </c>
       <c r="H20" s="1">
         <v>17.93</v>
@@ -4750,21 +4742,11 @@
       <c r="U114" s="12"/>
     </row>
     <row r="115" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" s="16">
-        <v>5</v>
-      </c>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -4787,10 +4769,10 @@
         <v>280</v>
       </c>
       <c r="B116" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>287</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>16</v>
@@ -4816,21 +4798,11 @@
       <c r="U116" s="12"/>
     </row>
     <row r="117" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="16">
-        <v>1</v>
-      </c>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -4853,10 +4825,10 @@
         <v>280</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>16</v>
@@ -4886,10 +4858,10 @@
         <v>280</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>16</v>
@@ -4919,10 +4891,10 @@
         <v>280</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>16</v>
@@ -4952,10 +4924,10 @@
         <v>280</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>16</v>
@@ -4985,10 +4957,10 @@
         <v>280</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>16</v>
@@ -5018,10 +4990,10 @@
         <v>280</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>16</v>
@@ -5051,10 +5023,10 @@
         <v>280</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>16</v>
@@ -5084,10 +5056,10 @@
         <v>280</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>16</v>
@@ -5117,10 +5089,10 @@
         <v>280</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>16</v>
@@ -5150,10 +5122,10 @@
         <v>280</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>16</v>
@@ -5183,10 +5155,10 @@
         <v>280</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>16</v>
@@ -5216,10 +5188,10 @@
         <v>280</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>16</v>
@@ -5249,10 +5221,10 @@
         <v>280</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>16</v>
@@ -5282,10 +5254,10 @@
         <v>280</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>16</v>
@@ -5315,10 +5287,10 @@
         <v>280</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>16</v>
@@ -5348,10 +5320,10 @@
         <v>280</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>16</v>
@@ -5381,10 +5353,10 @@
         <v>280</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>16</v>
@@ -5414,10 +5386,10 @@
         <v>280</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>16</v>
@@ -5444,13 +5416,13 @@
     </row>
     <row r="136" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>16</v>
@@ -5461,10 +5433,10 @@
         <v>280</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>16</v>
@@ -5492,10 +5464,10 @@
         <v>280</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>77</v>
@@ -5523,10 +5495,10 @@
         <v>280</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>16</v>
@@ -5554,10 +5526,10 @@
         <v>280</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>16</v>
@@ -5585,10 +5557,10 @@
         <v>280</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>16</v>
@@ -5616,10 +5588,10 @@
         <v>280</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>16</v>
@@ -5647,10 +5619,10 @@
         <v>280</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>77</v>
@@ -5674,21 +5646,11 @@
       <c r="S143" s="16"/>
     </row>
     <row r="144" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="16">
-        <v>1</v>
-      </c>
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
       <c r="F144" s="12"/>
       <c r="G144" s="16"/>
       <c r="H144" s="12"/>
@@ -5709,10 +5671,10 @@
         <v>280</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>16</v>
@@ -5740,10 +5702,10 @@
         <v>280</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>16</v>
@@ -5771,10 +5733,10 @@
         <v>280</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>16</v>
@@ -5802,10 +5764,10 @@
         <v>280</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>16</v>
@@ -5833,10 +5795,10 @@
         <v>280</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>16</v>
@@ -5864,10 +5826,10 @@
         <v>280</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>16</v>
@@ -5895,10 +5857,10 @@
         <v>280</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>16</v>
@@ -5926,10 +5888,10 @@
         <v>280</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>16</v>
@@ -5957,10 +5919,10 @@
         <v>280</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>16</v>
@@ -5988,10 +5950,10 @@
         <v>280</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>16</v>
@@ -6019,10 +5981,10 @@
         <v>280</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>16</v>
@@ -6050,10 +6012,10 @@
         <v>280</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>16</v>
@@ -6081,10 +6043,10 @@
         <v>280</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>16</v>
@@ -6112,10 +6074,10 @@
         <v>280</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>16</v>
@@ -6143,10 +6105,10 @@
         <v>280</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>16</v>
@@ -6174,10 +6136,10 @@
         <v>280</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>16</v>
@@ -6205,10 +6167,10 @@
         <v>280</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>16</v>
@@ -6236,10 +6198,10 @@
         <v>280</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>16</v>
@@ -6250,10 +6212,10 @@
     </row>
     <row r="163" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="16" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="16" t="s">
@@ -6263,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6271,13 +6233,13 @@
         <v>72</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E164" s="1">
         <v>3</v>
@@ -6295,13 +6257,13 @@
         <v>72</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -6315,13 +6277,13 @@
         <v>72</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
@@ -6338,13 +6300,13 @@
         <v>72</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E167" s="1">
         <v>2</v>
@@ -6365,13 +6327,13 @@
         <v>72</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E168" s="1">
         <v>2</v>
@@ -6392,13 +6354,13 @@
         <v>72</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
@@ -6419,13 +6381,13 @@
         <v>72</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
@@ -6443,13 +6405,13 @@
         <v>72</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -6467,13 +6429,13 @@
         <v>72</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -6491,13 +6453,13 @@
         <v>72</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E173" s="1">
         <v>2</v>
@@ -6515,13 +6477,13 @@
         <v>72</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -6539,13 +6501,13 @@
         <v>72</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -6561,13 +6523,13 @@
     <row r="176" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -6585,13 +6547,13 @@
         <v>72</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -6604,13 +6566,13 @@
         <v>72</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -6623,10 +6585,10 @@
         <v>72</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>16</v>
@@ -6647,10 +6609,10 @@
         <v>72</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>16</v>
@@ -6664,10 +6626,10 @@
         <v>72</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>16</v>
@@ -6678,13 +6640,13 @@
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>16</v>
@@ -6698,13 +6660,13 @@
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>16</v>
@@ -6721,19 +6683,26 @@
         <v>13</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E184" s="2">
-        <v>1</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>424</v>
+        <v>2</v>
+      </c>
+      <c r="F184" s="20">
+        <f>H184*E184</f>
+        <v>1449.52</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H184" s="1">
+        <v>724.76</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6741,10 +6710,10 @@
         <v>13</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>16</v>
@@ -6762,16 +6731,16 @@
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
@@ -6782,16 +6751,16 @@
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C187" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>432</v>
-      </c>
       <c r="D187" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -6808,7 +6777,7 @@
         <v>84889</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>47</v>
@@ -6829,10 +6798,10 @@
         <v>13</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>47</v>
@@ -6841,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6849,10 +6818,10 @@
         <v>13</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>33</v>
@@ -6870,13 +6839,13 @@
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>16</v>
@@ -6893,186 +6862,186 @@
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C192" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="D192" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C194" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="D194" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E192" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B193" s="1" t="s">
+      <c r="C195" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="D195" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E193" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="C196" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="D196" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E194" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B195" s="1" t="s">
+      <c r="C197" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="D197" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E195" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="C198" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="D198" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E196" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="C199" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="D199" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E198" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="E199" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="D202" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E200" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E201" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -7080,19 +7049,22 @@
       <c r="F202" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J202" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B203" s="1">
         <v>16399</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -7100,50 +7072,53 @@
       <c r="F203" s="1">
         <v>82.76</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J203" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>16</v>
@@ -7159,18 +7134,18 @@
         <v>72.760000000000005</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>16</v>
@@ -7186,15 +7161,15 @@
         <v>31.117000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>16</v>
@@ -7215,20 +7190,20 @@
         <v>13</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E209" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F209" s="1">
         <f t="shared" si="16"/>
-        <v>53.37</v>
+        <v>106.74</v>
       </c>
       <c r="H209" s="1">
         <v>53.37</v>
@@ -7239,10 +7214,10 @@
         <v>222</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>16</v>
@@ -7258,7 +7233,7 @@
         <v>72.760000000000005</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7266,10 +7241,10 @@
         <v>13</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>16</v>
@@ -7287,16 +7262,16 @@
     </row>
     <row r="212" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E212" s="1">
         <v>20</v>
@@ -7314,16 +7289,16 @@
     </row>
     <row r="213" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E213" s="1">
         <v>120</v>
@@ -7341,16 +7316,16 @@
     </row>
     <row r="214" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E214" s="12">
         <v>0</v>
@@ -7381,16 +7356,16 @@
     </row>
     <row r="215" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E215" s="12">
         <v>20</v>
@@ -7408,16 +7383,16 @@
     </row>
     <row r="216" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E216" s="12">
         <v>0</v>
@@ -7448,16 +7423,16 @@
     </row>
     <row r="217" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E217" s="12">
         <v>0</v>
@@ -7488,19 +7463,19 @@
     </row>
     <row r="218" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F218" s="1">
         <v>66</v>
@@ -7515,16 +7490,16 @@
     </row>
     <row r="219" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E219" s="1">
         <v>20</v>
@@ -7542,19 +7517,19 @@
     </row>
     <row r="220" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F220" s="2">
         <v>366.84</v>
@@ -7564,38 +7539,18 @@
       </c>
     </row>
     <row r="221" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B221" s="2">
-        <v>16399</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E221" s="2">
-        <v>1</v>
-      </c>
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E222" s="2">
-        <v>1</v>
-      </c>
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="11"/>
@@ -9794,6 +9749,10 @@
       <c r="C954" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J202" r:id="rId1"/>
+    <hyperlink ref="J203" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -1,32 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Clouds\OneDrive - Nexus365\4pi_workspace\Git\CAD-files_JW\CAD-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/engs1793_ox_ac_uk/Documents/4pi_workspace/Git/CAD-files_JW/CAD-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_24B83572BA8ADC7BFD66B936B856E04174FEF458" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{19C7C836-5B6D-4C6A-B1DA-F994209AC83A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5100" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4Pi-SMS part list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4Pi-SMS part list'!$D$1:$D$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4Pi-SMS part list'!$D$1:$D$222</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mjDYxjtmimiROp2JLQbDHFHMZ953g=="/>
     </ext>
@@ -35,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="507">
   <si>
     <t>Category</t>
   </si>
@@ -1541,12 +1534,30 @@
   </si>
   <si>
     <t>Consumables</t>
+  </si>
+  <si>
+    <t>ZT405/488/561/640rpc</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>ZET405/488/561/640mv2</t>
+  </si>
+  <si>
+    <t>Quad-band bandpass filter in cavity</t>
+  </si>
+  <si>
+    <t>LS0</t>
+  </si>
+  <si>
+    <t>LS1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1851,24 +1862,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R953"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R955"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="48.19921875" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="18" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="18" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,11 +1899,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1933,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1963,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +1993,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2023,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2042,7 +2053,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2076,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -2093,7 +2104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2178,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2212,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2232,7 +2243,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2266,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2283,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -2317,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2334,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -2351,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2368,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -2385,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -2405,7 +2416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -2422,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2439,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -2456,7 +2467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2473,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2490,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2524,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -2541,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2558,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>74</v>
       </c>
@@ -2588,7 +2599,7 @@
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>74</v>
       </c>
@@ -2618,7 +2629,7 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -2635,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -2669,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -2703,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -2737,7 +2748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -2788,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2805,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -2839,7 +2850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -2856,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>128</v>
       </c>
@@ -2904,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -2921,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2938,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
@@ -2955,7 +2966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -2972,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -2989,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -3006,7 +3017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -3023,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3053,7 +3064,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -3070,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -3087,7 +3098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
@@ -3104,7 +3115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
@@ -3121,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -3155,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -3172,7 +3183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3189,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,7 +3217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -3223,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3240,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -3257,7 +3268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -3274,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -3291,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
@@ -3308,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
@@ -3325,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>74</v>
       </c>
@@ -3359,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
@@ -3376,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>74</v>
       </c>
@@ -3393,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3410,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3427,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>74</v>
       </c>
@@ -3444,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>74</v>
       </c>
@@ -3461,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>74</v>
       </c>
@@ -3478,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>74</v>
       </c>
@@ -3495,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>198</v>
       </c>
@@ -3515,7 +3526,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>203</v>
       </c>
@@ -3535,7 +3546,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>208</v>
       </c>
@@ -3567,7 +3578,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
     </row>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>212</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>212</v>
       </c>
@@ -3607,7 +3618,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>212</v>
       </c>
@@ -3627,7 +3638,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>212</v>
       </c>
@@ -3644,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>212</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>212</v>
       </c>
@@ -3684,7 +3695,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>212</v>
       </c>
@@ -3704,7 +3715,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -3724,7 +3735,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>212</v>
       </c>
@@ -3741,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>212</v>
       </c>
@@ -3761,7 +3772,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>212</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>212</v>
       </c>
@@ -3798,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>212</v>
       </c>
@@ -3818,32 +3829,27 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>502</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E107" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>254</v>
@@ -3851,124 +3857,99 @@
       <c r="E108" s="1">
         <v>2</v>
       </c>
-      <c r="F108" s="3" t="s">
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E109" s="3">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2</v>
+      </c>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E110" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B113" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C113" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D113" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E111" s="15">
-        <v>1</v>
-      </c>
-      <c r="F111" s="15" t="s">
+      <c r="E113" s="15">
+        <v>1</v>
+      </c>
+      <c r="F113" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-    </row>
-    <row r="112" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="15">
-        <v>2</v>
-      </c>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-    </row>
-    <row r="113" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="15">
-        <v>1</v>
-      </c>
-      <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
@@ -3982,21 +3963,21 @@
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
     </row>
-    <row r="114" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
@@ -4012,15 +3993,15 @@
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
     </row>
-    <row r="115" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B115" s="15" t="s">
-        <v>275</v>
+      <c r="B115" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>9</v>
@@ -4042,21 +4023,21 @@
       <c r="Q115" s="12"/>
       <c r="R115" s="12"/>
     </row>
-    <row r="116" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>277</v>
+        <v>48</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
@@ -4072,21 +4053,21 @@
       <c r="Q116" s="12"/>
       <c r="R116" s="12"/>
     </row>
-    <row r="117" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
@@ -4102,15 +4083,15 @@
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
     </row>
-    <row r="118" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>9</v>
@@ -4132,21 +4113,21 @@
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
     </row>
-    <row r="119" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
@@ -4162,21 +4143,21 @@
       <c r="Q119" s="12"/>
       <c r="R119" s="12"/>
     </row>
-    <row r="120" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
@@ -4192,21 +4173,21 @@
       <c r="Q120" s="12"/>
       <c r="R120" s="12"/>
     </row>
-    <row r="121" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
@@ -4222,21 +4203,21 @@
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
     </row>
-    <row r="122" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
@@ -4252,21 +4233,21 @@
       <c r="Q122" s="12"/>
       <c r="R122" s="12"/>
     </row>
-    <row r="123" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -4282,15 +4263,15 @@
       <c r="Q123" s="12"/>
       <c r="R123" s="12"/>
     </row>
-    <row r="124" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>9</v>
@@ -4312,21 +4293,21 @@
       <c r="Q124" s="12"/>
       <c r="R124" s="12"/>
     </row>
-    <row r="125" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B125" s="17" t="s">
-        <v>295</v>
+      <c r="B125" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
@@ -4342,15 +4323,15 @@
       <c r="Q125" s="12"/>
       <c r="R125" s="12"/>
     </row>
-    <row r="126" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>9</v>
@@ -4372,12 +4353,12 @@
       <c r="Q126" s="12"/>
       <c r="R126" s="12"/>
     </row>
-    <row r="127" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B127" s="15" t="s">
-        <v>298</v>
+      <c r="B127" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>294</v>
@@ -4402,15 +4383,15 @@
       <c r="Q127" s="12"/>
       <c r="R127" s="12"/>
     </row>
-    <row r="128" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>9</v>
@@ -4432,15 +4413,15 @@
       <c r="Q128" s="12"/>
       <c r="R128" s="12"/>
     </row>
-    <row r="129" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>9</v>
@@ -4462,15 +4443,15 @@
       <c r="Q129" s="12"/>
       <c r="R129" s="12"/>
     </row>
-    <row r="130" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>9</v>
@@ -4492,15 +4473,15 @@
       <c r="Q130" s="12"/>
       <c r="R130" s="12"/>
     </row>
-    <row r="131" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>9</v>
@@ -4522,21 +4503,21 @@
       <c r="Q131" s="12"/>
       <c r="R131" s="12"/>
     </row>
-    <row r="132" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -4552,15 +4533,15 @@
       <c r="Q132" s="12"/>
       <c r="R132" s="12"/>
     </row>
-    <row r="133" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>9</v>
@@ -4582,21 +4563,21 @@
       <c r="Q133" s="12"/>
       <c r="R133" s="12"/>
     </row>
-    <row r="134" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
@@ -4612,29 +4593,45 @@
       <c r="Q134" s="12"/>
       <c r="R134" s="12"/>
     </row>
-    <row r="135" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D135" s="3" t="s">
+    <row r="135" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D135" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="15">
+        <v>1</v>
+      </c>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+    </row>
+    <row r="136" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>9</v>
@@ -4642,55 +4639,43 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="15"/>
+      <c r="F136" s="12"/>
       <c r="G136" s="12"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
       <c r="K136" s="12"/>
-      <c r="L136" s="15"/>
+      <c r="L136" s="12"/>
       <c r="M136" s="12"/>
-      <c r="N136" s="15"/>
-      <c r="O136" s="15"/>
-      <c r="P136" s="15"/>
-    </row>
-    <row r="137" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E137" s="15">
-        <v>1</v>
-      </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="15"/>
-      <c r="O137" s="15"/>
-      <c r="P137" s="15"/>
-    </row>
-    <row r="138" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+    </row>
+    <row r="137" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>9</v>
@@ -4710,18 +4695,18 @@
       <c r="O138" s="15"/>
       <c r="P138" s="15"/>
     </row>
-    <row r="139" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E139" s="15">
         <v>1</v>
@@ -4738,15 +4723,15 @@
       <c r="O139" s="15"/>
       <c r="P139" s="15"/>
     </row>
-    <row r="140" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>9</v>
@@ -4766,15 +4751,15 @@
       <c r="O140" s="15"/>
       <c r="P140" s="15"/>
     </row>
-    <row r="141" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>9</v>
@@ -4794,18 +4779,18 @@
       <c r="O141" s="15"/>
       <c r="P141" s="15"/>
     </row>
-    <row r="142" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E142" s="15">
         <v>1</v>
@@ -4822,15 +4807,15 @@
       <c r="O142" s="15"/>
       <c r="P142" s="15"/>
     </row>
-    <row r="143" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>9</v>
@@ -4850,18 +4835,18 @@
       <c r="O143" s="15"/>
       <c r="P143" s="15"/>
     </row>
-    <row r="144" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E144" s="15">
         <v>1</v>
@@ -4878,15 +4863,15 @@
       <c r="O144" s="15"/>
       <c r="P144" s="15"/>
     </row>
-    <row r="145" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>9</v>
@@ -4906,21 +4891,21 @@
       <c r="O145" s="15"/>
       <c r="P145" s="15"/>
     </row>
-    <row r="146" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="12"/>
@@ -4934,15 +4919,15 @@
       <c r="O146" s="15"/>
       <c r="P146" s="15"/>
     </row>
-    <row r="147" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>9</v>
@@ -4962,21 +4947,21 @@
       <c r="O147" s="15"/>
       <c r="P147" s="15"/>
     </row>
-    <row r="148" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="12"/>
@@ -4990,15 +4975,15 @@
       <c r="O148" s="15"/>
       <c r="P148" s="15"/>
     </row>
-    <row r="149" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>9</v>
@@ -5018,15 +5003,15 @@
       <c r="O149" s="15"/>
       <c r="P149" s="15"/>
     </row>
-    <row r="150" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>9</v>
@@ -5046,15 +5031,15 @@
       <c r="O150" s="15"/>
       <c r="P150" s="15"/>
     </row>
-    <row r="151" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>9</v>
@@ -5074,15 +5059,15 @@
       <c r="O151" s="15"/>
       <c r="P151" s="15"/>
     </row>
-    <row r="152" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>9</v>
@@ -5102,15 +5087,15 @@
       <c r="O152" s="15"/>
       <c r="P152" s="15"/>
     </row>
-    <row r="153" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>9</v>
@@ -5130,15 +5115,15 @@
       <c r="O153" s="15"/>
       <c r="P153" s="15"/>
     </row>
-    <row r="154" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>9</v>
@@ -5158,21 +5143,21 @@
       <c r="O154" s="15"/>
       <c r="P154" s="15"/>
     </row>
-    <row r="155" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="12"/>
@@ -5186,15 +5171,15 @@
       <c r="O155" s="15"/>
       <c r="P155" s="15"/>
     </row>
-    <row r="156" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>9</v>
@@ -5214,21 +5199,21 @@
       <c r="O156" s="15"/>
       <c r="P156" s="15"/>
     </row>
-    <row r="157" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="12"/>
@@ -5242,15 +5227,15 @@
       <c r="O157" s="15"/>
       <c r="P157" s="15"/>
     </row>
-    <row r="158" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>9</v>
@@ -5270,15 +5255,15 @@
       <c r="O158" s="15"/>
       <c r="P158" s="15"/>
     </row>
-    <row r="159" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>9</v>
@@ -5298,15 +5283,15 @@
       <c r="O159" s="15"/>
       <c r="P159" s="15"/>
     </row>
-    <row r="160" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>9</v>
@@ -5326,84 +5311,106 @@
       <c r="O160" s="15"/>
       <c r="P160" s="15"/>
     </row>
-    <row r="161" spans="1:6" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="15"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+    </row>
+    <row r="162" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C162" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>364</v>
+      </c>
       <c r="D162" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="15">
         <v>1</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F162" s="15"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
+    </row>
+    <row r="163" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="15">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E163" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E164" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>371</v>
@@ -5412,100 +5419,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E166" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E167" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E168" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E169" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>371</v>
@@ -5514,32 +5521,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>371</v>
       </c>
       <c r="E172" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>371</v>
@@ -5548,32 +5555,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>371</v>
       </c>
       <c r="E174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>371</v>
@@ -5582,15 +5589,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>371</v>
@@ -5599,15 +5606,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>371</v>
@@ -5616,49 +5623,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="E178" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="E179" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>9</v>
@@ -5667,49 +5674,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C183" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>9</v>
@@ -5717,169 +5724,175 @@
       <c r="E183" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E186" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E185" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E186" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" s="1">
-        <v>84889</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E187" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E188" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="1">
+        <v>84889</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E191" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E191" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>429</v>
+        <v>9</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>429</v>
@@ -5888,15 +5901,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>429</v>
@@ -5905,15 +5918,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>429</v>
@@ -5922,15 +5935,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>429</v>
@@ -5939,15 +5952,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>429</v>
@@ -5956,32 +5969,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>446</v>
+        <v>440</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="E198" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>429</v>
@@ -5990,171 +6003,171 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>429</v>
+        <v>444</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>446</v>
       </c>
       <c r="E200" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B202" s="1">
-        <v>16399</v>
+      <c r="B202" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B204" s="1">
+        <v>16399</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C203" s="18" t="s">
+      <c r="C205" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E205" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C206" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E204" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="1">
-        <v>3</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E207" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>467</v>
+        <v>212</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E208" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>9</v>
@@ -6162,19 +6175,16 @@
       <c r="E209" s="1">
         <v>1</v>
       </c>
-      <c r="F209" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>471</v>
+        <v>277</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>9</v>
@@ -6183,96 +6193,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
+    <row r="211" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E213" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="6" t="s">
+    <row r="214" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B214" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E214" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="213" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B213" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="E213" s="12">
-        <v>0</v>
-      </c>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="12"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="12"/>
-      <c r="L213" s="12"/>
-      <c r="M213" s="12"/>
-      <c r="N213" s="12"/>
-      <c r="O213" s="12"/>
-      <c r="P213" s="12"/>
-      <c r="Q213" s="12"/>
-      <c r="R213" s="12"/>
-    </row>
-    <row r="214" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B214" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="D214" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="E214" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
         <v>426</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>475</v>
@@ -6294,2319 +6294,2366 @@
       <c r="Q215" s="12"/>
       <c r="R215" s="12"/>
     </row>
-    <row r="216" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
         <v>426</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>475</v>
       </c>
       <c r="E216" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E217" s="12">
         <v>0</v>
       </c>
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
-      <c r="J216" s="12"/>
-      <c r="K216" s="12"/>
-      <c r="L216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
-      <c r="O216" s="12"/>
-      <c r="P216" s="12"/>
-      <c r="Q216" s="12"/>
-      <c r="R216" s="12"/>
-    </row>
-    <row r="217" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="6" t="s">
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="12"/>
+      <c r="M217" s="12"/>
+      <c r="N217" s="12"/>
+      <c r="O217" s="12"/>
+      <c r="P217" s="12"/>
+      <c r="Q217" s="12"/>
+      <c r="R217" s="12"/>
+    </row>
+    <row r="218" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B218" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E218" s="12">
+        <v>0</v>
+      </c>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+      <c r="M218" s="12"/>
+      <c r="N218" s="12"/>
+      <c r="O218" s="12"/>
+      <c r="P218" s="12"/>
+      <c r="Q218" s="12"/>
+      <c r="R218" s="12"/>
+    </row>
+    <row r="219" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E218" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E220" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B222" s="3">
         <v>16399</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C222" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D222" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E220" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
+      <c r="E222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C221" s="18" t="s">
+      <c r="C223" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D223" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E221" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
     </row>
-    <row r="287" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
     </row>
-    <row r="293" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
     </row>
-    <row r="294" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
     </row>
-    <row r="295" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
     </row>
-    <row r="296" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
     </row>
-    <row r="298" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
     </row>
-    <row r="306" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
     </row>
-    <row r="307" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
     </row>
-    <row r="308" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
     </row>
-    <row r="309" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
     </row>
-    <row r="310" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
     </row>
-    <row r="311" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
     </row>
-    <row r="312" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
     </row>
-    <row r="313" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
     </row>
-    <row r="314" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
     </row>
-    <row r="315" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
     </row>
-    <row r="316" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
     </row>
-    <row r="317" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
     </row>
-    <row r="318" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
     </row>
-    <row r="319" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
     </row>
-    <row r="320" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
     </row>
-    <row r="321" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
     </row>
-    <row r="322" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
     </row>
-    <row r="323" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
     </row>
-    <row r="324" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
     </row>
-    <row r="326" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
     </row>
-    <row r="327" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
     </row>
-    <row r="328" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
     </row>
-    <row r="329" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
     </row>
-    <row r="332" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
     </row>
-    <row r="334" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
     </row>
-    <row r="336" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
     </row>
-    <row r="342" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
     </row>
-    <row r="352" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
     </row>
-    <row r="353" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
     </row>
-    <row r="354" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
     </row>
-    <row r="355" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
     </row>
-    <row r="356" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
     </row>
-    <row r="357" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
     </row>
-    <row r="358" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
     </row>
-    <row r="359" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
     </row>
-    <row r="360" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
     </row>
-    <row r="361" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
     </row>
-    <row r="362" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
     </row>
-    <row r="363" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
     </row>
-    <row r="364" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
     </row>
-    <row r="365" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
     </row>
-    <row r="366" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
     </row>
-    <row r="367" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
     </row>
-    <row r="368" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C368" s="2"/>
     </row>
-    <row r="369" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C369" s="2"/>
     </row>
-    <row r="370" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C370" s="2"/>
     </row>
-    <row r="371" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C371" s="2"/>
     </row>
-    <row r="372" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C372" s="2"/>
     </row>
-    <row r="373" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C373" s="2"/>
     </row>
-    <row r="374" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C374" s="2"/>
     </row>
-    <row r="375" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C375" s="2"/>
     </row>
-    <row r="376" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
     </row>
-    <row r="377" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
     </row>
-    <row r="378" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
     </row>
-    <row r="379" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
     </row>
-    <row r="380" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
     </row>
-    <row r="381" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
     </row>
-    <row r="382" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
     </row>
-    <row r="383" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
     </row>
-    <row r="384" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C385" s="2"/>
     </row>
-    <row r="386" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C390" s="2"/>
     </row>
-    <row r="391" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C395" s="2"/>
     </row>
-    <row r="396" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C400" s="2"/>
     </row>
-    <row r="401" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C416" s="2"/>
     </row>
-    <row r="417" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C417" s="2"/>
     </row>
-    <row r="418" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C418" s="2"/>
     </row>
-    <row r="419" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C419" s="2"/>
     </row>
-    <row r="420" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C420" s="2"/>
     </row>
-    <row r="421" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C421" s="2"/>
     </row>
-    <row r="422" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C422" s="2"/>
     </row>
-    <row r="423" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C423" s="2"/>
     </row>
-    <row r="424" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C424" s="2"/>
     </row>
-    <row r="425" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C425" s="2"/>
     </row>
-    <row r="426" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C426" s="2"/>
     </row>
-    <row r="427" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C427" s="2"/>
     </row>
-    <row r="428" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C428" s="2"/>
     </row>
-    <row r="429" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C429" s="2"/>
     </row>
-    <row r="430" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C430" s="2"/>
     </row>
-    <row r="431" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C431" s="2"/>
     </row>
-    <row r="432" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C432" s="2"/>
     </row>
-    <row r="433" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C433" s="2"/>
     </row>
-    <row r="434" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C434" s="2"/>
     </row>
-    <row r="435" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C435" s="2"/>
     </row>
-    <row r="436" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C436" s="2"/>
     </row>
-    <row r="437" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C437" s="2"/>
     </row>
-    <row r="438" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C438" s="2"/>
     </row>
-    <row r="439" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C439" s="2"/>
     </row>
-    <row r="440" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C440" s="2"/>
     </row>
-    <row r="441" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C441" s="2"/>
     </row>
-    <row r="442" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C442" s="2"/>
     </row>
-    <row r="443" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C443" s="2"/>
     </row>
-    <row r="444" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C444" s="2"/>
     </row>
-    <row r="445" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C445" s="2"/>
     </row>
-    <row r="446" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C446" s="2"/>
     </row>
-    <row r="447" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C447" s="2"/>
     </row>
-    <row r="448" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C448" s="2"/>
     </row>
-    <row r="449" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C449" s="2"/>
     </row>
-    <row r="450" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C450" s="2"/>
     </row>
-    <row r="451" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C451" s="2"/>
     </row>
-    <row r="452" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C452" s="2"/>
     </row>
-    <row r="453" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C453" s="2"/>
     </row>
-    <row r="454" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C454" s="2"/>
     </row>
-    <row r="455" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C455" s="2"/>
     </row>
-    <row r="456" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C456" s="2"/>
     </row>
-    <row r="457" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C457" s="2"/>
     </row>
-    <row r="458" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C458" s="2"/>
     </row>
-    <row r="459" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C459" s="2"/>
     </row>
-    <row r="460" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C460" s="2"/>
     </row>
-    <row r="461" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C461" s="2"/>
     </row>
-    <row r="462" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C462" s="2"/>
     </row>
-    <row r="463" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C463" s="2"/>
     </row>
-    <row r="464" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C464" s="2"/>
     </row>
-    <row r="465" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C465" s="2"/>
     </row>
-    <row r="466" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C466" s="2"/>
     </row>
-    <row r="467" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C467" s="2"/>
     </row>
-    <row r="468" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C468" s="2"/>
     </row>
-    <row r="469" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C469" s="2"/>
     </row>
-    <row r="470" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C470" s="2"/>
     </row>
-    <row r="471" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C471" s="2"/>
     </row>
-    <row r="472" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C472" s="2"/>
     </row>
-    <row r="473" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C473" s="2"/>
     </row>
-    <row r="474" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C474" s="2"/>
     </row>
-    <row r="475" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C475" s="2"/>
     </row>
-    <row r="476" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C476" s="2"/>
     </row>
-    <row r="477" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C477" s="2"/>
     </row>
-    <row r="478" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C478" s="2"/>
     </row>
-    <row r="479" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C479" s="2"/>
     </row>
-    <row r="480" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C480" s="2"/>
     </row>
-    <row r="481" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C481" s="2"/>
     </row>
-    <row r="482" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C482" s="2"/>
     </row>
-    <row r="483" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C483" s="2"/>
     </row>
-    <row r="484" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C484" s="2"/>
     </row>
-    <row r="485" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C485" s="2"/>
     </row>
-    <row r="486" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C486" s="2"/>
     </row>
-    <row r="487" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C487" s="2"/>
     </row>
-    <row r="488" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C488" s="2"/>
     </row>
-    <row r="489" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C489" s="2"/>
     </row>
-    <row r="490" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C490" s="2"/>
     </row>
-    <row r="491" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C491" s="2"/>
     </row>
-    <row r="492" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C492" s="2"/>
     </row>
-    <row r="493" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C493" s="2"/>
     </row>
-    <row r="494" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C494" s="2"/>
     </row>
-    <row r="495" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C495" s="2"/>
     </row>
-    <row r="496" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C496" s="2"/>
     </row>
-    <row r="497" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C497" s="2"/>
     </row>
-    <row r="498" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C498" s="2"/>
     </row>
-    <row r="499" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C500" s="2"/>
     </row>
-    <row r="501" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C503" s="2"/>
     </row>
-    <row r="504" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C504" s="2"/>
     </row>
-    <row r="505" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C505" s="2"/>
     </row>
-    <row r="506" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C507" s="2"/>
     </row>
-    <row r="508" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C508" s="2"/>
     </row>
-    <row r="509" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C509" s="2"/>
     </row>
-    <row r="510" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C510" s="2"/>
     </row>
-    <row r="511" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C511" s="2"/>
     </row>
-    <row r="512" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C512" s="2"/>
     </row>
-    <row r="513" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C513" s="2"/>
     </row>
-    <row r="514" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C514" s="2"/>
     </row>
-    <row r="515" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C515" s="2"/>
     </row>
-    <row r="516" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C516" s="2"/>
     </row>
-    <row r="517" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C517" s="2"/>
     </row>
-    <row r="518" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C518" s="2"/>
     </row>
-    <row r="519" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C519" s="2"/>
     </row>
-    <row r="520" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C520" s="2"/>
     </row>
-    <row r="521" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C521" s="2"/>
     </row>
-    <row r="522" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C522" s="2"/>
     </row>
-    <row r="523" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C523" s="2"/>
     </row>
-    <row r="524" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C524" s="2"/>
     </row>
-    <row r="525" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C525" s="2"/>
     </row>
-    <row r="526" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C526" s="2"/>
     </row>
-    <row r="527" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C527" s="2"/>
     </row>
-    <row r="528" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C528" s="2"/>
     </row>
-    <row r="529" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C529" s="2"/>
     </row>
-    <row r="530" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C530" s="2"/>
     </row>
-    <row r="531" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C531" s="2"/>
     </row>
-    <row r="532" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C532" s="2"/>
     </row>
-    <row r="533" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C533" s="2"/>
     </row>
-    <row r="534" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C534" s="2"/>
     </row>
-    <row r="535" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C535" s="2"/>
     </row>
-    <row r="536" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C536" s="2"/>
     </row>
-    <row r="537" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C537" s="2"/>
     </row>
-    <row r="538" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C538" s="2"/>
     </row>
-    <row r="539" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C539" s="2"/>
     </row>
-    <row r="540" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C540" s="2"/>
     </row>
-    <row r="541" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C541" s="2"/>
     </row>
-    <row r="542" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C542" s="2"/>
     </row>
-    <row r="543" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C543" s="2"/>
     </row>
-    <row r="544" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C544" s="2"/>
     </row>
-    <row r="545" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C545" s="2"/>
     </row>
-    <row r="546" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C546" s="2"/>
     </row>
-    <row r="547" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C547" s="2"/>
     </row>
-    <row r="548" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C548" s="2"/>
     </row>
-    <row r="549" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C550" s="2"/>
     </row>
-    <row r="551" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C551" s="2"/>
     </row>
-    <row r="552" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C553" s="2"/>
     </row>
-    <row r="554" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C554" s="2"/>
     </row>
-    <row r="555" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C555" s="2"/>
     </row>
-    <row r="556" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C556" s="2"/>
     </row>
-    <row r="557" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C557" s="2"/>
     </row>
-    <row r="558" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C558" s="2"/>
     </row>
-    <row r="559" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C559" s="2"/>
     </row>
-    <row r="560" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C560" s="2"/>
     </row>
-    <row r="561" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C561" s="2"/>
     </row>
-    <row r="562" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C562" s="2"/>
     </row>
-    <row r="563" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C563" s="2"/>
     </row>
-    <row r="564" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C564" s="2"/>
     </row>
-    <row r="565" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C565" s="2"/>
     </row>
-    <row r="566" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C566" s="2"/>
     </row>
-    <row r="567" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C567" s="2"/>
     </row>
-    <row r="568" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C568" s="2"/>
     </row>
-    <row r="569" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C569" s="2"/>
     </row>
-    <row r="570" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C570" s="2"/>
     </row>
-    <row r="571" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C571" s="2"/>
     </row>
-    <row r="572" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C572" s="2"/>
     </row>
-    <row r="573" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C573" s="2"/>
     </row>
-    <row r="574" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C574" s="2"/>
     </row>
-    <row r="575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C575" s="2"/>
     </row>
-    <row r="576" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C576" s="2"/>
     </row>
-    <row r="577" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C577" s="2"/>
     </row>
-    <row r="578" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C578" s="2"/>
     </row>
-    <row r="579" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C579" s="2"/>
     </row>
-    <row r="580" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C580" s="2"/>
     </row>
-    <row r="581" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C581" s="2"/>
     </row>
-    <row r="582" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C582" s="2"/>
     </row>
-    <row r="583" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C583" s="2"/>
     </row>
-    <row r="584" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C584" s="2"/>
     </row>
-    <row r="585" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C585" s="2"/>
     </row>
-    <row r="586" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C586" s="2"/>
     </row>
-    <row r="587" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C587" s="2"/>
     </row>
-    <row r="588" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C588" s="2"/>
     </row>
-    <row r="589" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C589" s="2"/>
     </row>
-    <row r="590" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C590" s="2"/>
     </row>
-    <row r="591" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C591" s="2"/>
     </row>
-    <row r="592" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C592" s="2"/>
     </row>
-    <row r="593" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C593" s="2"/>
     </row>
-    <row r="594" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C594" s="2"/>
     </row>
-    <row r="595" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C595" s="2"/>
     </row>
-    <row r="596" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C596" s="2"/>
     </row>
-    <row r="597" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C597" s="2"/>
     </row>
-    <row r="598" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C598" s="2"/>
     </row>
-    <row r="599" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C599" s="2"/>
     </row>
-    <row r="600" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C600" s="2"/>
     </row>
-    <row r="601" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C601" s="2"/>
     </row>
-    <row r="602" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C602" s="2"/>
     </row>
-    <row r="603" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C603" s="2"/>
     </row>
-    <row r="604" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C604" s="2"/>
     </row>
-    <row r="605" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C605" s="2"/>
     </row>
-    <row r="606" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C606" s="2"/>
     </row>
-    <row r="607" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C607" s="2"/>
     </row>
-    <row r="608" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C608" s="2"/>
     </row>
-    <row r="609" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C609" s="2"/>
     </row>
-    <row r="610" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C610" s="2"/>
     </row>
-    <row r="611" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C611" s="2"/>
     </row>
-    <row r="612" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C612" s="2"/>
     </row>
-    <row r="613" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C613" s="2"/>
     </row>
-    <row r="614" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C614" s="2"/>
     </row>
-    <row r="615" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C615" s="2"/>
     </row>
-    <row r="616" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C616" s="2"/>
     </row>
-    <row r="617" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C617" s="2"/>
     </row>
-    <row r="618" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C618" s="2"/>
     </row>
-    <row r="619" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C619" s="2"/>
     </row>
-    <row r="620" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C620" s="2"/>
     </row>
-    <row r="621" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C621" s="2"/>
     </row>
-    <row r="622" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C622" s="2"/>
     </row>
-    <row r="623" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C623" s="2"/>
     </row>
-    <row r="624" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C624" s="2"/>
     </row>
-    <row r="625" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C625" s="2"/>
     </row>
-    <row r="626" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C626" s="2"/>
     </row>
-    <row r="627" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C627" s="2"/>
     </row>
-    <row r="628" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C628" s="2"/>
     </row>
-    <row r="629" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C629" s="2"/>
     </row>
-    <row r="630" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C630" s="2"/>
     </row>
-    <row r="631" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C631" s="2"/>
     </row>
-    <row r="632" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C632" s="2"/>
     </row>
-    <row r="633" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C633" s="2"/>
     </row>
-    <row r="634" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C634" s="2"/>
     </row>
-    <row r="635" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C635" s="2"/>
     </row>
-    <row r="636" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C636" s="2"/>
     </row>
-    <row r="637" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C637" s="2"/>
     </row>
-    <row r="638" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C638" s="2"/>
     </row>
-    <row r="639" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C639" s="2"/>
     </row>
-    <row r="640" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C640" s="2"/>
     </row>
-    <row r="641" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C641" s="2"/>
     </row>
-    <row r="642" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C642" s="2"/>
     </row>
-    <row r="643" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C643" s="2"/>
     </row>
-    <row r="644" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C644" s="2"/>
     </row>
-    <row r="645" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C645" s="2"/>
     </row>
-    <row r="646" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C646" s="2"/>
     </row>
-    <row r="647" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C647" s="2"/>
     </row>
-    <row r="648" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C648" s="2"/>
     </row>
-    <row r="649" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C649" s="2"/>
     </row>
-    <row r="650" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C650" s="2"/>
     </row>
-    <row r="651" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C651" s="2"/>
     </row>
-    <row r="652" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C652" s="2"/>
     </row>
-    <row r="653" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C653" s="2"/>
     </row>
-    <row r="654" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C654" s="2"/>
     </row>
-    <row r="655" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C655" s="2"/>
     </row>
-    <row r="656" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C656" s="2"/>
     </row>
-    <row r="657" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C657" s="2"/>
     </row>
-    <row r="658" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C658" s="2"/>
     </row>
-    <row r="659" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C659" s="2"/>
     </row>
-    <row r="660" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C660" s="2"/>
     </row>
-    <row r="661" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C661" s="2"/>
     </row>
-    <row r="662" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C662" s="2"/>
     </row>
-    <row r="663" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C663" s="2"/>
     </row>
-    <row r="664" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C664" s="2"/>
     </row>
-    <row r="665" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C665" s="2"/>
     </row>
-    <row r="666" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C666" s="2"/>
     </row>
-    <row r="667" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C667" s="2"/>
     </row>
-    <row r="668" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C668" s="2"/>
     </row>
-    <row r="669" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C669" s="2"/>
     </row>
-    <row r="670" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C670" s="2"/>
     </row>
-    <row r="671" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C671" s="2"/>
     </row>
-    <row r="672" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C672" s="2"/>
     </row>
-    <row r="673" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C673" s="2"/>
     </row>
-    <row r="674" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C674" s="2"/>
     </row>
-    <row r="675" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C675" s="2"/>
     </row>
-    <row r="676" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C676" s="2"/>
     </row>
-    <row r="677" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C677" s="2"/>
     </row>
-    <row r="678" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C678" s="2"/>
     </row>
-    <row r="679" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C679" s="2"/>
     </row>
-    <row r="680" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C680" s="2"/>
     </row>
-    <row r="681" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C681" s="2"/>
     </row>
-    <row r="682" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C682" s="2"/>
     </row>
-    <row r="683" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C683" s="2"/>
     </row>
-    <row r="684" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C684" s="2"/>
     </row>
-    <row r="685" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C685" s="2"/>
     </row>
-    <row r="686" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C686" s="2"/>
     </row>
-    <row r="687" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C687" s="2"/>
     </row>
-    <row r="688" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C688" s="2"/>
     </row>
-    <row r="689" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C689" s="2"/>
     </row>
-    <row r="690" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C690" s="2"/>
     </row>
-    <row r="691" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C691" s="2"/>
     </row>
-    <row r="692" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C692" s="2"/>
     </row>
-    <row r="693" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C693" s="2"/>
     </row>
-    <row r="694" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C694" s="2"/>
     </row>
-    <row r="695" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C695" s="2"/>
     </row>
-    <row r="696" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C696" s="2"/>
     </row>
-    <row r="697" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C697" s="2"/>
     </row>
-    <row r="698" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C698" s="2"/>
     </row>
-    <row r="699" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C699" s="2"/>
     </row>
-    <row r="700" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C700" s="2"/>
     </row>
-    <row r="701" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C701" s="2"/>
     </row>
-    <row r="702" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C702" s="2"/>
     </row>
-    <row r="703" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C703" s="2"/>
     </row>
-    <row r="704" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C704" s="2"/>
     </row>
-    <row r="705" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C705" s="2"/>
     </row>
-    <row r="706" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C706" s="2"/>
     </row>
-    <row r="707" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C707" s="2"/>
     </row>
-    <row r="708" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C708" s="2"/>
     </row>
-    <row r="709" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C709" s="2"/>
     </row>
-    <row r="710" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C710" s="2"/>
     </row>
-    <row r="711" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C711" s="2"/>
     </row>
-    <row r="712" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C712" s="2"/>
     </row>
-    <row r="713" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C713" s="2"/>
     </row>
-    <row r="714" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C714" s="2"/>
     </row>
-    <row r="715" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C715" s="2"/>
     </row>
-    <row r="716" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C716" s="2"/>
     </row>
-    <row r="717" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C717" s="2"/>
     </row>
-    <row r="718" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C718" s="2"/>
     </row>
-    <row r="719" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C719" s="2"/>
     </row>
-    <row r="720" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C720" s="2"/>
     </row>
-    <row r="721" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C721" s="2"/>
     </row>
-    <row r="722" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C722" s="2"/>
     </row>
-    <row r="723" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C723" s="2"/>
     </row>
-    <row r="724" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C724" s="2"/>
     </row>
-    <row r="725" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C725" s="2"/>
     </row>
-    <row r="726" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C726" s="2"/>
     </row>
-    <row r="727" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C727" s="2"/>
     </row>
-    <row r="728" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C728" s="2"/>
     </row>
-    <row r="729" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C729" s="2"/>
     </row>
-    <row r="730" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C730" s="2"/>
     </row>
-    <row r="731" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C731" s="2"/>
     </row>
-    <row r="732" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C732" s="2"/>
     </row>
-    <row r="733" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C733" s="2"/>
     </row>
-    <row r="734" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C734" s="2"/>
     </row>
-    <row r="735" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C735" s="2"/>
     </row>
-    <row r="736" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C736" s="2"/>
     </row>
-    <row r="737" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C737" s="2"/>
     </row>
-    <row r="738" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C738" s="2"/>
     </row>
-    <row r="739" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C739" s="2"/>
     </row>
-    <row r="740" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C740" s="2"/>
     </row>
-    <row r="741" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C741" s="2"/>
     </row>
-    <row r="742" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C742" s="2"/>
     </row>
-    <row r="743" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C743" s="2"/>
     </row>
-    <row r="744" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C744" s="2"/>
     </row>
-    <row r="745" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C745" s="2"/>
     </row>
-    <row r="746" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C746" s="2"/>
     </row>
-    <row r="747" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C747" s="2"/>
     </row>
-    <row r="748" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C748" s="2"/>
     </row>
-    <row r="749" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C749" s="2"/>
     </row>
-    <row r="750" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C750" s="2"/>
     </row>
-    <row r="751" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C751" s="2"/>
     </row>
-    <row r="752" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C752" s="2"/>
     </row>
-    <row r="753" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C753" s="2"/>
     </row>
-    <row r="754" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C754" s="2"/>
     </row>
-    <row r="755" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C755" s="2"/>
     </row>
-    <row r="756" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C756" s="2"/>
     </row>
-    <row r="757" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C757" s="2"/>
     </row>
-    <row r="758" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C758" s="2"/>
     </row>
-    <row r="759" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C759" s="2"/>
     </row>
-    <row r="760" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C760" s="2"/>
     </row>
-    <row r="761" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C761" s="2"/>
     </row>
-    <row r="762" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C762" s="2"/>
     </row>
-    <row r="763" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C763" s="2"/>
     </row>
-    <row r="764" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C764" s="2"/>
     </row>
-    <row r="765" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C765" s="2"/>
     </row>
-    <row r="766" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C766" s="2"/>
     </row>
-    <row r="767" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C767" s="2"/>
     </row>
-    <row r="768" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C768" s="2"/>
     </row>
-    <row r="769" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C769" s="2"/>
     </row>
-    <row r="770" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C770" s="2"/>
     </row>
-    <row r="771" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C771" s="2"/>
     </row>
-    <row r="772" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C772" s="2"/>
     </row>
-    <row r="773" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C773" s="2"/>
     </row>
-    <row r="774" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C774" s="2"/>
     </row>
-    <row r="775" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C775" s="2"/>
     </row>
-    <row r="776" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C776" s="2"/>
     </row>
-    <row r="777" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C777" s="2"/>
     </row>
-    <row r="778" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C778" s="2"/>
     </row>
-    <row r="779" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C779" s="2"/>
     </row>
-    <row r="780" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C780" s="2"/>
     </row>
-    <row r="781" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C781" s="2"/>
     </row>
-    <row r="782" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C782" s="2"/>
     </row>
-    <row r="783" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C783" s="2"/>
     </row>
-    <row r="784" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C784" s="2"/>
     </row>
-    <row r="785" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C785" s="2"/>
     </row>
-    <row r="786" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C786" s="2"/>
     </row>
-    <row r="787" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C787" s="2"/>
     </row>
-    <row r="788" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C788" s="2"/>
     </row>
-    <row r="789" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C789" s="2"/>
     </row>
-    <row r="790" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C790" s="2"/>
     </row>
-    <row r="791" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C791" s="2"/>
     </row>
-    <row r="792" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C792" s="2"/>
     </row>
-    <row r="793" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C793" s="2"/>
     </row>
-    <row r="794" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C794" s="2"/>
     </row>
-    <row r="795" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C795" s="2"/>
     </row>
-    <row r="796" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C796" s="2"/>
     </row>
-    <row r="797" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C797" s="2"/>
     </row>
-    <row r="798" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C798" s="2"/>
     </row>
-    <row r="799" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C799" s="2"/>
     </row>
-    <row r="800" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C800" s="2"/>
     </row>
-    <row r="801" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C801" s="2"/>
     </row>
-    <row r="802" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C802" s="2"/>
     </row>
-    <row r="803" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C803" s="2"/>
     </row>
-    <row r="804" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C804" s="2"/>
     </row>
-    <row r="805" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C805" s="2"/>
     </row>
-    <row r="806" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C806" s="2"/>
     </row>
-    <row r="807" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C807" s="2"/>
     </row>
-    <row r="808" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C808" s="2"/>
     </row>
-    <row r="809" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C809" s="2"/>
     </row>
-    <row r="810" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C810" s="2"/>
     </row>
-    <row r="811" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C811" s="2"/>
     </row>
-    <row r="812" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C812" s="2"/>
     </row>
-    <row r="813" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C813" s="2"/>
     </row>
-    <row r="814" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C814" s="2"/>
     </row>
-    <row r="815" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C815" s="2"/>
     </row>
-    <row r="816" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C816" s="2"/>
     </row>
-    <row r="817" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C817" s="2"/>
     </row>
-    <row r="818" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C818" s="2"/>
     </row>
-    <row r="819" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C819" s="2"/>
     </row>
-    <row r="820" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C820" s="2"/>
     </row>
-    <row r="821" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C821" s="2"/>
     </row>
-    <row r="822" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C822" s="2"/>
     </row>
-    <row r="823" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C823" s="2"/>
     </row>
-    <row r="824" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C824" s="2"/>
     </row>
-    <row r="825" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C825" s="2"/>
     </row>
-    <row r="826" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C826" s="2"/>
     </row>
-    <row r="827" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C827" s="2"/>
     </row>
-    <row r="828" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C828" s="2"/>
     </row>
-    <row r="829" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C829" s="2"/>
     </row>
-    <row r="830" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C830" s="2"/>
     </row>
-    <row r="831" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C831" s="2"/>
     </row>
-    <row r="832" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C832" s="2"/>
     </row>
-    <row r="833" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C833" s="2"/>
     </row>
-    <row r="834" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C834" s="2"/>
     </row>
-    <row r="835" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C835" s="2"/>
     </row>
-    <row r="836" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C836" s="2"/>
     </row>
-    <row r="837" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C837" s="2"/>
     </row>
-    <row r="838" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C838" s="2"/>
     </row>
-    <row r="839" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C839" s="2"/>
     </row>
-    <row r="840" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C840" s="2"/>
     </row>
-    <row r="841" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C841" s="2"/>
     </row>
-    <row r="842" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C842" s="2"/>
     </row>
-    <row r="843" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C843" s="2"/>
     </row>
-    <row r="844" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C844" s="2"/>
     </row>
-    <row r="845" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C845" s="2"/>
     </row>
-    <row r="846" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C846" s="2"/>
     </row>
-    <row r="847" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C847" s="2"/>
     </row>
-    <row r="848" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C848" s="2"/>
     </row>
-    <row r="849" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C849" s="2"/>
     </row>
-    <row r="850" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C850" s="2"/>
     </row>
-    <row r="851" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C851" s="2"/>
     </row>
-    <row r="852" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C852" s="2"/>
     </row>
-    <row r="853" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C853" s="2"/>
     </row>
-    <row r="854" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C854" s="2"/>
     </row>
-    <row r="855" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C855" s="2"/>
     </row>
-    <row r="856" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C856" s="2"/>
     </row>
-    <row r="857" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C857" s="2"/>
     </row>
-    <row r="858" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C858" s="2"/>
     </row>
-    <row r="859" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C859" s="2"/>
     </row>
-    <row r="860" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C860" s="2"/>
     </row>
-    <row r="861" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C861" s="2"/>
     </row>
-    <row r="862" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C862" s="2"/>
     </row>
-    <row r="863" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C863" s="2"/>
     </row>
-    <row r="864" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C864" s="2"/>
     </row>
-    <row r="865" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C865" s="2"/>
     </row>
-    <row r="866" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C866" s="2"/>
     </row>
-    <row r="867" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C867" s="2"/>
     </row>
-    <row r="868" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C868" s="2"/>
     </row>
-    <row r="869" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C869" s="2"/>
     </row>
-    <row r="870" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C870" s="2"/>
     </row>
-    <row r="871" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C871" s="2"/>
     </row>
-    <row r="872" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C872" s="2"/>
     </row>
-    <row r="873" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C873" s="2"/>
     </row>
-    <row r="874" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C874" s="2"/>
     </row>
-    <row r="875" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C875" s="2"/>
     </row>
-    <row r="876" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C876" s="2"/>
     </row>
-    <row r="877" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C877" s="2"/>
     </row>
-    <row r="878" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C878" s="2"/>
     </row>
-    <row r="879" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C879" s="2"/>
     </row>
-    <row r="880" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C880" s="2"/>
     </row>
-    <row r="881" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C881" s="2"/>
     </row>
-    <row r="882" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C882" s="2"/>
     </row>
-    <row r="883" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C883" s="2"/>
     </row>
-    <row r="884" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C884" s="2"/>
     </row>
-    <row r="885" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C885" s="2"/>
     </row>
-    <row r="886" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C886" s="2"/>
     </row>
-    <row r="887" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C887" s="2"/>
     </row>
-    <row r="888" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C888" s="2"/>
     </row>
-    <row r="889" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C889" s="2"/>
     </row>
-    <row r="890" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C890" s="2"/>
     </row>
-    <row r="891" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C891" s="2"/>
     </row>
-    <row r="892" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C892" s="2"/>
     </row>
-    <row r="893" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C893" s="2"/>
     </row>
-    <row r="894" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C894" s="2"/>
     </row>
-    <row r="895" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C895" s="2"/>
     </row>
-    <row r="896" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C896" s="2"/>
     </row>
-    <row r="897" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C897" s="2"/>
     </row>
-    <row r="898" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C898" s="2"/>
     </row>
-    <row r="899" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C899" s="2"/>
     </row>
-    <row r="900" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C900" s="2"/>
     </row>
-    <row r="901" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C901" s="2"/>
     </row>
-    <row r="902" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C902" s="2"/>
     </row>
-    <row r="903" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C903" s="2"/>
     </row>
-    <row r="904" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C904" s="2"/>
     </row>
-    <row r="905" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C905" s="2"/>
     </row>
-    <row r="906" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C906" s="2"/>
     </row>
-    <row r="907" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C907" s="2"/>
     </row>
-    <row r="908" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C908" s="2"/>
     </row>
-    <row r="909" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C909" s="2"/>
     </row>
-    <row r="910" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C910" s="2"/>
     </row>
-    <row r="911" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C911" s="2"/>
     </row>
-    <row r="912" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C912" s="2"/>
     </row>
-    <row r="913" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C913" s="2"/>
     </row>
-    <row r="914" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C914" s="2"/>
     </row>
-    <row r="915" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C915" s="2"/>
     </row>
-    <row r="916" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C916" s="2"/>
     </row>
-    <row r="917" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C917" s="2"/>
     </row>
-    <row r="918" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C918" s="2"/>
     </row>
-    <row r="919" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C919" s="2"/>
     </row>
-    <row r="920" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C920" s="2"/>
     </row>
-    <row r="921" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C921" s="2"/>
     </row>
-    <row r="922" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C922" s="2"/>
     </row>
-    <row r="923" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C923" s="2"/>
     </row>
-    <row r="924" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C924" s="2"/>
     </row>
-    <row r="925" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C925" s="2"/>
     </row>
-    <row r="926" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C926" s="2"/>
     </row>
-    <row r="927" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C927" s="2"/>
     </row>
-    <row r="928" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C928" s="2"/>
     </row>
-    <row r="929" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C929" s="2"/>
     </row>
-    <row r="930" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C930" s="2"/>
     </row>
-    <row r="931" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C931" s="2"/>
     </row>
-    <row r="932" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C932" s="2"/>
     </row>
-    <row r="933" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C933" s="2"/>
     </row>
-    <row r="934" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C934" s="2"/>
     </row>
-    <row r="935" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C935" s="2"/>
     </row>
-    <row r="936" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C936" s="2"/>
     </row>
-    <row r="937" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C937" s="2"/>
     </row>
-    <row r="938" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C938" s="2"/>
     </row>
-    <row r="939" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C939" s="2"/>
     </row>
-    <row r="940" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C940" s="2"/>
     </row>
-    <row r="941" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C941" s="2"/>
     </row>
-    <row r="942" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C942" s="2"/>
     </row>
-    <row r="943" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C943" s="2"/>
     </row>
-    <row r="944" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C944" s="2"/>
     </row>
-    <row r="945" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C945" s="2"/>
     </row>
-    <row r="946" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C946" s="2"/>
     </row>
-    <row r="947" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C947" s="2"/>
     </row>
-    <row r="948" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C948" s="2"/>
     </row>
-    <row r="949" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C949" s="2"/>
     </row>
-    <row r="950" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C950" s="2"/>
     </row>
-    <row r="951" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C951" s="2"/>
     </row>
-    <row r="952" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C952" s="2"/>
     </row>
-    <row r="953" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C953" s="2"/>
     </row>
+    <row r="954" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C954" s="2"/>
+    </row>
+    <row r="955" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C955" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D220"/>
+  <autoFilter ref="D1:D222" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/engs1793_ox_ac_uk/Documents/4pi_workspace/Git/CAD-files_JW/CAD-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_24B83572BA8ADC7BFD66B936B856E04174FEF458" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{19C7C836-5B6D-4C6A-B1DA-F994209AC83A}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_24B83572BA8ADC7BFD66B936B856E04174FEF458" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C5CB738C-D8A1-4345-A334-2401C2CB97BB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4Pi-SMS part list" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="503">
   <si>
     <t>Category</t>
   </si>
@@ -795,12 +795,6 @@
     <t>Semrock</t>
   </si>
   <si>
-    <t xml:space="preserve">Di01-R405/488/561/635-17.5x24 </t>
-  </si>
-  <si>
-    <t>405/488/561/635 BrightLine Laser Dichroic Beam splitter, 17.5 x 24.0 mm</t>
-  </si>
-  <si>
     <t>DI0 and DI1</t>
   </si>
   <si>
@@ -816,16 +810,10 @@
     <t>Chroma</t>
   </si>
   <si>
-    <t>EM filters</t>
-  </si>
-  <si>
     <t>FF01-600/52-25</t>
   </si>
   <si>
     <t>600/52 nm BrightLine® single-band bandpass filter</t>
-  </si>
-  <si>
-    <t>Optics-excitation</t>
   </si>
   <si>
     <t>FF01-390/482/563/640-25</t>
@@ -1536,12 +1524,6 @@
     <t>Consumables</t>
   </si>
   <si>
-    <t>ZT405/488/561/640rpc</t>
-  </si>
-  <si>
-    <t>Filters</t>
-  </si>
-  <si>
     <t>ZET405/488/561/640mv2</t>
   </si>
   <si>
@@ -1552,6 +1534,12 @@
   </si>
   <si>
     <t>LS1</t>
+  </si>
+  <si>
+    <t>ZT405/488/561/640rpcv2-UF1</t>
+  </si>
+  <si>
+    <t>405/488/561/640 Laser Dichroic Beam splitter, 17.5 x 24.0 mm</t>
   </si>
 </sst>
 </file>
@@ -1866,8 +1854,8 @@
   <dimension ref="A1:R955"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3830,20 +3818,16 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>501</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>212</v>
+      <c r="A108" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>252</v>
@@ -3859,37 +3843,37 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>212</v>
+      <c r="A109" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>255</v>
+        <v>501</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>254</v>
+        <v>502</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="E109" s="1">
         <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="E110" s="3">
         <v>1</v>
@@ -3898,16 +3882,16 @@
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E111" s="3">
         <v>2</v>
@@ -3916,13 +3900,13 @@
     </row>
     <row r="112" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>254</v>
@@ -3932,14 +3916,14 @@
       </c>
     </row>
     <row r="113" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
-        <v>265</v>
+      <c r="A113" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>254</v>
@@ -3948,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -3965,13 +3949,13 @@
     </row>
     <row r="114" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>9</v>
@@ -3995,13 +3979,13 @@
     </row>
     <row r="115" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>9</v>
@@ -4025,13 +4009,13 @@
     </row>
     <row r="116" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>9</v>
@@ -4055,13 +4039,13 @@
     </row>
     <row r="117" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>9</v>
@@ -4085,13 +4069,13 @@
     </row>
     <row r="118" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>9</v>
@@ -4115,13 +4099,13 @@
     </row>
     <row r="119" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>9</v>
@@ -4145,13 +4129,13 @@
     </row>
     <row r="120" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>9</v>
@@ -4175,13 +4159,13 @@
     </row>
     <row r="121" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>9</v>
@@ -4205,13 +4189,13 @@
     </row>
     <row r="122" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>9</v>
@@ -4235,13 +4219,13 @@
     </row>
     <row r="123" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>9</v>
@@ -4265,13 +4249,13 @@
     </row>
     <row r="124" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>9</v>
@@ -4295,13 +4279,13 @@
     </row>
     <row r="125" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>9</v>
@@ -4325,13 +4309,13 @@
     </row>
     <row r="126" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>9</v>
@@ -4355,13 +4339,13 @@
     </row>
     <row r="127" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>9</v>
@@ -4385,13 +4369,13 @@
     </row>
     <row r="128" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>9</v>
@@ -4415,13 +4399,13 @@
     </row>
     <row r="129" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>9</v>
@@ -4445,13 +4429,13 @@
     </row>
     <row r="130" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>9</v>
@@ -4475,13 +4459,13 @@
     </row>
     <row r="131" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>9</v>
@@ -4505,13 +4489,13 @@
     </row>
     <row r="132" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>9</v>
@@ -4535,13 +4519,13 @@
     </row>
     <row r="133" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>9</v>
@@ -4565,13 +4549,13 @@
     </row>
     <row r="134" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>9</v>
@@ -4595,13 +4579,13 @@
     </row>
     <row r="135" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>9</v>
@@ -4625,13 +4609,13 @@
     </row>
     <row r="136" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>9</v>
@@ -4655,13 +4639,13 @@
     </row>
     <row r="137" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>9</v>
@@ -4669,13 +4653,13 @@
     </row>
     <row r="138" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>9</v>
@@ -4697,13 +4681,13 @@
     </row>
     <row r="139" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>70</v>
@@ -4725,13 +4709,13 @@
     </row>
     <row r="140" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>9</v>
@@ -4753,13 +4737,13 @@
     </row>
     <row r="141" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>9</v>
@@ -4781,13 +4765,13 @@
     </row>
     <row r="142" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>9</v>
@@ -4809,13 +4793,13 @@
     </row>
     <row r="143" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>9</v>
@@ -4837,13 +4821,13 @@
     </row>
     <row r="144" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>70</v>
@@ -4865,13 +4849,13 @@
     </row>
     <row r="145" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>9</v>
@@ -4893,13 +4877,13 @@
     </row>
     <row r="146" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>9</v>
@@ -4921,13 +4905,13 @@
     </row>
     <row r="147" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>9</v>
@@ -4949,13 +4933,13 @@
     </row>
     <row r="148" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>9</v>
@@ -4977,13 +4961,13 @@
     </row>
     <row r="149" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>9</v>
@@ -5005,13 +4989,13 @@
     </row>
     <row r="150" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>9</v>
@@ -5033,13 +5017,13 @@
     </row>
     <row r="151" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>9</v>
@@ -5061,13 +5045,13 @@
     </row>
     <row r="152" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>9</v>
@@ -5089,13 +5073,13 @@
     </row>
     <row r="153" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>9</v>
@@ -5117,13 +5101,13 @@
     </row>
     <row r="154" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>9</v>
@@ -5145,13 +5129,13 @@
     </row>
     <row r="155" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>9</v>
@@ -5173,13 +5157,13 @@
     </row>
     <row r="156" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>9</v>
@@ -5201,13 +5185,13 @@
     </row>
     <row r="157" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>9</v>
@@ -5229,13 +5213,13 @@
     </row>
     <row r="158" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>9</v>
@@ -5257,13 +5241,13 @@
     </row>
     <row r="159" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>9</v>
@@ -5285,13 +5269,13 @@
     </row>
     <row r="160" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>9</v>
@@ -5313,13 +5297,13 @@
     </row>
     <row r="161" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>9</v>
@@ -5341,13 +5325,13 @@
     </row>
     <row r="162" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>9</v>
@@ -5369,13 +5353,13 @@
     </row>
     <row r="163" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>9</v>
@@ -5386,10 +5370,10 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="15" t="s">
@@ -5399,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5407,13 +5391,13 @@
         <v>65</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -5424,13 +5408,13 @@
         <v>65</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
@@ -5441,13 +5425,13 @@
         <v>65</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E167" s="1">
         <v>3</v>
@@ -5458,13 +5442,13 @@
         <v>65</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E168" s="1">
         <v>2</v>
@@ -5475,13 +5459,13 @@
         <v>65</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E169" s="1">
         <v>2</v>
@@ -5492,13 +5476,13 @@
         <v>65</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
@@ -5509,13 +5493,13 @@
         <v>65</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -5526,13 +5510,13 @@
         <v>65</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -5543,13 +5527,13 @@
         <v>65</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -5560,13 +5544,13 @@
         <v>65</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E174" s="1">
         <v>2</v>
@@ -5577,13 +5561,13 @@
         <v>65</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -5594,13 +5578,13 @@
         <v>65</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -5611,13 +5595,13 @@
         <v>65</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -5628,13 +5612,13 @@
         <v>65</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -5645,13 +5629,13 @@
         <v>65</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -5662,10 +5646,10 @@
         <v>65</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>9</v>
@@ -5679,10 +5663,10 @@
         <v>65</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>9</v>
@@ -5696,10 +5680,10 @@
         <v>65</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>9</v>
@@ -5710,13 +5694,13 @@
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>9</v>
@@ -5725,18 +5709,18 @@
         <v>1</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>9</v>
@@ -5745,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5753,10 +5737,10 @@
         <v>6</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>9</v>
@@ -5770,10 +5754,10 @@
         <v>6</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>9</v>
@@ -5784,16 +5768,16 @@
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -5801,16 +5785,16 @@
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -5824,7 +5808,7 @@
         <v>84889</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>40</v>
@@ -5838,10 +5822,10 @@
         <v>6</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>40</v>
@@ -5855,10 +5839,10 @@
         <v>6</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>26</v>
@@ -5869,13 +5853,13 @@
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>9</v>
@@ -5886,16 +5870,16 @@
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C193" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
@@ -5903,16 +5887,16 @@
     </row>
     <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -5920,16 +5904,16 @@
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
@@ -5937,16 +5921,16 @@
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -5954,16 +5938,16 @@
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
@@ -5971,16 +5955,16 @@
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -5988,16 +5972,16 @@
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -6005,16 +5989,16 @@
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E200" s="1">
         <v>2</v>
@@ -6022,16 +6006,16 @@
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -6039,16 +6023,16 @@
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -6056,16 +6040,16 @@
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -6073,16 +6057,16 @@
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B204" s="1">
         <v>16399</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
@@ -6090,16 +6074,16 @@
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E205" s="1">
         <v>4</v>
@@ -6107,16 +6091,16 @@
     </row>
     <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -6127,10 +6111,10 @@
         <v>212</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>9</v>
@@ -6139,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6147,10 +6131,10 @@
         <v>212</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>9</v>
@@ -6164,10 +6148,10 @@
         <v>6</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>9</v>
@@ -6181,10 +6165,10 @@
         <v>6</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>9</v>
@@ -6198,10 +6182,10 @@
         <v>212</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>9</v>
@@ -6210,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6218,10 +6202,10 @@
         <v>6</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>9</v>
@@ -6232,16 +6216,16 @@
     </row>
     <row r="213" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E213" s="1">
         <v>20</v>
@@ -6249,16 +6233,16 @@
     </row>
     <row r="214" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E214" s="1">
         <v>120</v>
@@ -6266,16 +6250,16 @@
     </row>
     <row r="215" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E215" s="12">
         <v>0</v>
@@ -6296,16 +6280,16 @@
     </row>
     <row r="216" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E216" s="12">
         <v>20</v>
@@ -6313,16 +6297,16 @@
     </row>
     <row r="217" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E217" s="12">
         <v>0</v>
@@ -6343,16 +6327,16 @@
     </row>
     <row r="218" spans="1:18" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E218" s="12">
         <v>0</v>
@@ -6373,33 +6357,33 @@
     </row>
     <row r="219" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E220" s="1">
         <v>20</v>
@@ -6407,33 +6391,33 @@
     </row>
     <row r="221" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B222" s="3">
         <v>16399</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E222" s="3">
         <v>1</v>
@@ -6441,16 +6425,16 @@
     </row>
     <row r="223" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E223" s="3">
         <v>1</v>
